--- a/Mifos Automation Excels/Client/2640-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-SPEDUEDATE-FEE-%APRAMT-WAIVECHARGE-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2640-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-SPEDUEDATE-FEE-%APRAMT-WAIVECHARGE-Newcreateloan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -827,38 +827,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -877,12 +876,12 @@
         <v>5000</v>
       </c>
       <c r="F2" s="15">
-        <v>2454.5100000000002</v>
+        <v>2412.65</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
-        <v>176.56</v>
+        <v>178.82</v>
       </c>
       <c r="B3" s="12">
         <v>0</v>
@@ -894,10 +893,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="12">
-        <v>176.56</v>
+        <v>178.82</v>
       </c>
       <c r="F3" s="12">
-        <v>96.25</v>
+        <v>96.99</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -949,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,12 +966,10 @@
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" customWidth="1"/>
+    <col min="13" max="14" width="8.140625" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1068,10 +1065,10 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12">
-        <v>914.71</v>
+        <v>864.71</v>
       </c>
       <c r="G3" s="15">
-        <v>4085.29</v>
+        <v>4135.29</v>
       </c>
       <c r="H3" s="12">
         <v>23.01</v>
@@ -1090,7 +1087,7 @@
       </c>
       <c r="M3" s="12"/>
       <c r="N3" s="12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O3" s="12">
         <v>0</v>
@@ -1100,7 +1097,7 @@
       </c>
       <c r="Q3" s="12"/>
       <c r="R3" s="12">
-        <v>937.72</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1116,13 +1113,13 @@
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12">
-        <v>778.85</v>
+        <v>783.01</v>
       </c>
       <c r="G4" s="15">
-        <v>3306.44</v>
+        <v>3352.28</v>
       </c>
       <c r="H4" s="12">
-        <v>27.67</v>
+        <v>27.95</v>
       </c>
       <c r="I4" s="12">
         <v>0</v>
@@ -1131,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="12">
-        <v>806.52</v>
+        <v>810.96</v>
       </c>
       <c r="L4" s="12">
         <v>0</v>
@@ -1148,7 +1145,7 @@
       </c>
       <c r="Q4" s="12"/>
       <c r="R4" s="12">
-        <v>806.52</v>
+        <v>810.96</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1164,13 +1161,13 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12">
-        <v>760.95</v>
+        <v>764.93</v>
       </c>
       <c r="G5" s="15">
-        <v>2545.4899999999998</v>
+        <v>2587.35</v>
       </c>
       <c r="H5" s="12">
-        <v>45.57</v>
+        <v>46.03</v>
       </c>
       <c r="I5" s="12">
         <v>0</v>
@@ -1179,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="12">
-        <v>806.52</v>
+        <v>810.96</v>
       </c>
       <c r="L5" s="12">
         <v>0</v>
@@ -1196,7 +1193,7 @@
       </c>
       <c r="Q5" s="12"/>
       <c r="R5" s="12">
-        <v>806.52</v>
+        <v>810.96</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1212,13 +1209,13 @@
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12">
-        <v>756.07</v>
+        <v>760</v>
       </c>
       <c r="G6" s="15">
-        <v>1789.42</v>
+        <v>1827.35</v>
       </c>
       <c r="H6" s="12">
-        <v>50.45</v>
+        <v>50.96</v>
       </c>
       <c r="I6" s="12">
         <v>0</v>
@@ -1227,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="12">
-        <v>806.52</v>
+        <v>810.96</v>
       </c>
       <c r="L6" s="12">
         <v>0</v>
@@ -1244,7 +1241,7 @@
       </c>
       <c r="Q6" s="12"/>
       <c r="R6" s="12">
-        <v>806.52</v>
+        <v>810.96</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1260,13 +1257,13 @@
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12">
-        <v>788.87</v>
+        <v>792.94</v>
       </c>
       <c r="G7" s="15">
-        <v>1000.55</v>
+        <v>1034.4100000000001</v>
       </c>
       <c r="H7" s="12">
-        <v>17.649999999999999</v>
+        <v>18.02</v>
       </c>
       <c r="I7" s="12">
         <v>0</v>
@@ -1275,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="12">
-        <v>806.52</v>
+        <v>810.96</v>
       </c>
       <c r="L7" s="12">
         <v>0</v>
@@ -1292,7 +1289,7 @@
       </c>
       <c r="Q7" s="12"/>
       <c r="R7" s="12">
-        <v>806.52</v>
+        <v>810.96</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1308,13 +1305,13 @@
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12">
-        <v>796.32</v>
+        <v>800.42</v>
       </c>
       <c r="G8" s="12">
-        <v>204.23</v>
+        <v>233.99</v>
       </c>
       <c r="H8" s="12">
-        <v>10.199999999999999</v>
+        <v>10.54</v>
       </c>
       <c r="I8" s="12">
         <v>0</v>
@@ -1323,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="12">
-        <v>806.52</v>
+        <v>810.96</v>
       </c>
       <c r="L8" s="12">
         <v>0</v>
@@ -1340,7 +1337,7 @@
       </c>
       <c r="Q8" s="12"/>
       <c r="R8" s="12">
-        <v>806.52</v>
+        <v>810.96</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1356,13 +1353,13 @@
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12">
-        <v>204.23</v>
+        <v>233.99</v>
       </c>
       <c r="G9" s="12">
         <v>0</v>
       </c>
       <c r="H9" s="12">
-        <v>2.0099999999999998</v>
+        <v>2.31</v>
       </c>
       <c r="I9" s="12">
         <v>0</v>
@@ -1371,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="12">
-        <v>206.24</v>
+        <v>236.3</v>
       </c>
       <c r="L9" s="12">
         <v>0</v>
@@ -1388,7 +1385,7 @@
       </c>
       <c r="Q9" s="12"/>
       <c r="R9" s="12">
-        <v>206.24</v>
+        <v>236.3</v>
       </c>
     </row>
   </sheetData>
